--- a/data/pca/factorExposure/factorExposure_2012-07-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-26.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001987525334594711</v>
+        <v>0.00133833238682452</v>
       </c>
       <c r="C2">
-        <v>0.0274426031601759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02895765474422647</v>
+      </c>
+      <c r="D2">
+        <v>-0.005502498844201465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.004420646745285483</v>
+        <v>-0.007527798221140406</v>
       </c>
       <c r="C4">
-        <v>0.0886117450576432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0842897349434287</v>
+      </c>
+      <c r="D4">
+        <v>-0.06530080697775172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.01069158634089307</v>
+        <v>-0.01582320064636507</v>
       </c>
       <c r="C6">
-        <v>0.115237478718716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1192135913746138</v>
+      </c>
+      <c r="D6">
+        <v>-0.01687885883499389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002245465819144775</v>
+        <v>-0.004693326090126758</v>
       </c>
       <c r="C7">
-        <v>0.05429065386902297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05923951041157072</v>
+      </c>
+      <c r="D7">
+        <v>-0.03377515024587589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.004611706519035383</v>
+        <v>-0.005460335877969886</v>
       </c>
       <c r="C8">
-        <v>0.04120970041087883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03695551516123858</v>
+      </c>
+      <c r="D8">
+        <v>-0.03588559321375961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003591419932714376</v>
+        <v>-0.006850971925405261</v>
       </c>
       <c r="C9">
-        <v>0.0754821610792242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.07547141259966908</v>
+      </c>
+      <c r="D9">
+        <v>-0.07004275204451865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0009770376386341398</v>
+        <v>-0.002001925573406554</v>
       </c>
       <c r="C10">
-        <v>0.04541156579752689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04904746562954662</v>
+      </c>
+      <c r="D10">
+        <v>0.1853206704468071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003528479309248005</v>
+        <v>-0.007261399277539586</v>
       </c>
       <c r="C11">
-        <v>0.08686989231385911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.08252248102705356</v>
+      </c>
+      <c r="D11">
+        <v>-0.06691568609482798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.002508580942461935</v>
+        <v>-0.005317887207705671</v>
       </c>
       <c r="C12">
-        <v>0.06931700771392608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.06772852040831509</v>
+      </c>
+      <c r="D12">
+        <v>-0.04793308874268624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.006706481611362135</v>
+        <v>-0.0099807472768346</v>
       </c>
       <c r="C13">
-        <v>0.07548896990727755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0704213148280517</v>
+      </c>
+      <c r="D13">
+        <v>-0.05438158846769075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0004742913142302449</v>
+        <v>-0.000814058695412984</v>
       </c>
       <c r="C14">
-        <v>0.04475249370825258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04413640491831885</v>
+      </c>
+      <c r="D14">
+        <v>-0.01083013262404357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.005631474872324159</v>
+        <v>-0.00704875905403103</v>
       </c>
       <c r="C15">
-        <v>0.04237986439269045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04057749964982613</v>
+      </c>
+      <c r="D15">
+        <v>-0.01985160544326036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003890409632207823</v>
+        <v>-0.006229565981227955</v>
       </c>
       <c r="C16">
-        <v>0.07211380401667261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06725433252945365</v>
+      </c>
+      <c r="D16">
+        <v>-0.05781653723943489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.007625446616018532</v>
+        <v>-0.009839806169200296</v>
       </c>
       <c r="C20">
-        <v>0.07212391209229702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06456925056222267</v>
+      </c>
+      <c r="D20">
+        <v>-0.04893179920600144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007758023154850199</v>
+        <v>-0.009226440838138698</v>
       </c>
       <c r="C21">
-        <v>0.02256549291519684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01938425791725293</v>
+      </c>
+      <c r="D21">
+        <v>-0.03960521600478749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01070017785348892</v>
+        <v>0.007730248609770458</v>
       </c>
       <c r="C22">
-        <v>0.09723359036375789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08421507208546147</v>
+      </c>
+      <c r="D22">
+        <v>-0.1120086298554804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01045556629427019</v>
+        <v>0.007454676779758518</v>
       </c>
       <c r="C23">
-        <v>0.09755802641755193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08463316837454543</v>
+      </c>
+      <c r="D23">
+        <v>-0.1131392293437177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00338882656565275</v>
+        <v>-0.007061415413464027</v>
       </c>
       <c r="C24">
-        <v>0.08008117930051946</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.07890953890371041</v>
+      </c>
+      <c r="D24">
+        <v>-0.06580628201285461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.001668799119475913</v>
+        <v>-0.004686179307469533</v>
       </c>
       <c r="C25">
-        <v>0.08410557168383355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.08021014794480615</v>
+      </c>
+      <c r="D25">
+        <v>-0.06305858425758008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.002443706253029115</v>
+        <v>-0.003969760435853437</v>
       </c>
       <c r="C26">
-        <v>0.03962879899897124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.03990211506261634</v>
+      </c>
+      <c r="D26">
+        <v>-0.01942329786544119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004404842764675762</v>
+        <v>0.002410218633082291</v>
       </c>
       <c r="C28">
-        <v>0.09283318256719963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09692716872355278</v>
+      </c>
+      <c r="D28">
+        <v>0.3275407468468134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.002317983323478623</v>
+        <v>-0.003686110190918453</v>
       </c>
       <c r="C29">
-        <v>0.0470791539097111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04761402916293653</v>
+      </c>
+      <c r="D29">
+        <v>-0.008840874625507089</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006220149222640288</v>
+        <v>-0.01152355385355839</v>
       </c>
       <c r="C30">
-        <v>0.1452122509998062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1426573969052726</v>
+      </c>
+      <c r="D30">
+        <v>-0.107295579005549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.004725902106977115</v>
+        <v>-0.006761914599997711</v>
       </c>
       <c r="C31">
-        <v>0.04432736764124331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.04523944881022184</v>
+      </c>
+      <c r="D31">
+        <v>-0.02965870595498963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.002423353353427298</v>
+        <v>-0.004079947683787217</v>
       </c>
       <c r="C32">
-        <v>0.04045352829107908</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.03768123810445777</v>
+      </c>
+      <c r="D32">
+        <v>-0.0149747703997261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.006085222619599063</v>
+        <v>-0.0101652967493126</v>
       </c>
       <c r="C33">
-        <v>0.09080203220525371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09266571278384335</v>
+      </c>
+      <c r="D33">
+        <v>-0.06051930015183723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.002956206776736739</v>
+        <v>-0.005760554412287892</v>
       </c>
       <c r="C34">
-        <v>0.06005669371606513</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.06040649769978915</v>
+      </c>
+      <c r="D34">
+        <v>-0.05728959103214555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004155636398846866</v>
+        <v>-0.00549756057810086</v>
       </c>
       <c r="C35">
-        <v>0.04097897331206659</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.04066196041850073</v>
+      </c>
+      <c r="D35">
+        <v>-0.0132444182332797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.002831629608405296</v>
+        <v>0.001278341387067078</v>
       </c>
       <c r="C36">
-        <v>0.02372377704613022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0255182424821675</v>
+      </c>
+      <c r="D36">
+        <v>-0.01941679615439743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.007177637226853795</v>
+        <v>-0.009075924241987146</v>
       </c>
       <c r="C38">
-        <v>0.04001446806513877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03951881234739632</v>
+      </c>
+      <c r="D38">
+        <v>-0.01125511821680275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.004386698942246432</v>
+        <v>-0.0004267870263665763</v>
       </c>
       <c r="C39">
-        <v>0.1197128025189136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1148804399179615</v>
+      </c>
+      <c r="D39">
+        <v>-0.08306150746175839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.0002313140176835308</v>
+        <v>-0.003083564984515481</v>
       </c>
       <c r="C40">
-        <v>0.08606871319816457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08485951442658356</v>
+      </c>
+      <c r="D40">
+        <v>-0.007438115358164293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.006500276938555723</v>
+        <v>-0.008216638799512174</v>
       </c>
       <c r="C41">
-        <v>0.0405138921539786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04226475153359244</v>
+      </c>
+      <c r="D41">
+        <v>-0.04218732725425537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.00142447235458074</v>
+        <v>-0.00468682235719375</v>
       </c>
       <c r="C43">
-        <v>0.05262746247738311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.05409854854008696</v>
+      </c>
+      <c r="D43">
+        <v>-0.02682442016609155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0001944406479857771</v>
+        <v>-0.003345337448697053</v>
       </c>
       <c r="C44">
-        <v>0.1200470569912417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1047464274051474</v>
+      </c>
+      <c r="D44">
+        <v>-0.06462052969761985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0003399588991098236</v>
+        <v>-0.000986952483531985</v>
       </c>
       <c r="C46">
-        <v>0.03463532035951568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03117100221944933</v>
+      </c>
+      <c r="D46">
+        <v>-0.03318097983283957</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002355561185077717</v>
+        <v>-0.003391393792777721</v>
       </c>
       <c r="C47">
-        <v>0.03775680353820634</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03524294451534627</v>
+      </c>
+      <c r="D47">
+        <v>-0.01841968570267823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.006559320245116948</v>
+        <v>-0.007985596010106667</v>
       </c>
       <c r="C48">
-        <v>0.03002328235758571</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.03222844361189468</v>
+      </c>
+      <c r="D48">
+        <v>-0.02733768299325487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01336872180642473</v>
+        <v>-0.02107066420697486</v>
       </c>
       <c r="C49">
-        <v>0.1858260364975261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1887615908685269</v>
+      </c>
+      <c r="D49">
+        <v>-0.009297147648522788</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.003236877681627363</v>
+        <v>-0.004663275429528885</v>
       </c>
       <c r="C50">
-        <v>0.04002589939812215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04372052675579986</v>
+      </c>
+      <c r="D50">
+        <v>-0.03859237239611957</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.003356769030534135</v>
+        <v>-0.00432425484838617</v>
       </c>
       <c r="C51">
-        <v>0.03139271418250521</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02814209231794416</v>
+      </c>
+      <c r="D51">
+        <v>-0.02414939823336899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01666192765798226</v>
+        <v>-0.02344319573763302</v>
       </c>
       <c r="C53">
-        <v>0.1737120273659533</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.1722029153601597</v>
+      </c>
+      <c r="D53">
+        <v>-0.01896755929905032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.006815522166829933</v>
+        <v>-0.009692881439586442</v>
       </c>
       <c r="C54">
-        <v>0.05495350852771654</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05761052783876242</v>
+      </c>
+      <c r="D54">
+        <v>-0.03858789495361907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.007460097068276107</v>
+        <v>-0.01091490126427485</v>
       </c>
       <c r="C55">
-        <v>0.1125006595094224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1085709065777624</v>
+      </c>
+      <c r="D55">
+        <v>-0.03202912787848212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01521280407252788</v>
+        <v>-0.02265032804478041</v>
       </c>
       <c r="C56">
-        <v>0.172397403003868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1724637088917293</v>
+      </c>
+      <c r="D56">
+        <v>-0.01600988740876043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.01582368435731296</v>
+        <v>-0.01819240473049821</v>
       </c>
       <c r="C58">
-        <v>0.1195273237162212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1043614825661077</v>
+      </c>
+      <c r="D58">
+        <v>-0.05465727621543775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.003693248871872745</v>
+        <v>-0.01024468963744479</v>
       </c>
       <c r="C59">
-        <v>0.1422122293737112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1655642898656829</v>
+      </c>
+      <c r="D59">
+        <v>0.351132025060676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.01863215517299291</v>
+        <v>-0.0280309374526504</v>
       </c>
       <c r="C60">
-        <v>0.2163014262644736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2254678230319781</v>
+      </c>
+      <c r="D60">
+        <v>-0.0199828187577103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.004376117710804472</v>
+        <v>0.0007471173353854687</v>
       </c>
       <c r="C61">
-        <v>0.09871093442226324</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09520177886405082</v>
+      </c>
+      <c r="D61">
+        <v>-0.06054241941991224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.153198690934414</v>
+        <v>-0.1560096253581196</v>
       </c>
       <c r="C62">
-        <v>0.09877653022014055</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1035433589697897</v>
+      </c>
+      <c r="D62">
+        <v>-0.01737867379679078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.005199468432643439</v>
+        <v>-0.007080119521232492</v>
       </c>
       <c r="C63">
-        <v>0.05560175944090071</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05376960550189846</v>
+      </c>
+      <c r="D63">
+        <v>-0.03151389590576904</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01415696526643355</v>
+        <v>-0.01751520606132955</v>
       </c>
       <c r="C64">
-        <v>0.1140535619300001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.1113412977987601</v>
+      </c>
+      <c r="D64">
+        <v>-0.04947272074525878</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.01443679201487129</v>
+        <v>-0.01861293260286658</v>
       </c>
       <c r="C65">
-        <v>0.1242147585829957</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.1267119001235144</v>
+      </c>
+      <c r="D65">
+        <v>-0.02001462530186032</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008458710802455128</v>
+        <v>-0.01514627165767155</v>
       </c>
       <c r="C66">
-        <v>0.1632617648671391</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1629042107764077</v>
+      </c>
+      <c r="D66">
+        <v>-0.1165710856018453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.0124840055915282</v>
+        <v>-0.01583557838611727</v>
       </c>
       <c r="C67">
-        <v>0.0735146896669857</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07311707523706117</v>
+      </c>
+      <c r="D67">
+        <v>-0.02453995523899415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00200854923635922</v>
+        <v>-0.0002280648151871797</v>
       </c>
       <c r="C68">
-        <v>0.07407026491771744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.08038215305828425</v>
+      </c>
+      <c r="D68">
+        <v>0.2617866201704749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003485576790026897</v>
+        <v>-0.006384132235342318</v>
       </c>
       <c r="C69">
-        <v>0.05618085201600356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05358713208128436</v>
+      </c>
+      <c r="D69">
+        <v>-0.03558487838780379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001260154957853045</v>
+        <v>-0.00278778835342623</v>
       </c>
       <c r="C70">
-        <v>0.001900095714916444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.009284525995855924</v>
+      </c>
+      <c r="D70">
+        <v>0.0002737926424631773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.002431159640021576</v>
+        <v>-0.004997727985731543</v>
       </c>
       <c r="C71">
-        <v>0.07832073138770812</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.0854340352238651</v>
+      </c>
+      <c r="D71">
+        <v>0.3049676401914385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.01281081916036525</v>
+        <v>-0.01964453393397654</v>
       </c>
       <c r="C72">
-        <v>0.1507945750171937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.1585113321574538</v>
+      </c>
+      <c r="D72">
+        <v>-0.008607039722985465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.02440029681815021</v>
+        <v>-0.03416501531826679</v>
       </c>
       <c r="C73">
-        <v>0.2859110686922816</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.2859308687962324</v>
+      </c>
+      <c r="D73">
+        <v>-0.05640327289238662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.0004687846874700954</v>
+        <v>-0.002870662154966486</v>
       </c>
       <c r="C74">
-        <v>0.106831441979863</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1034330188521646</v>
+      </c>
+      <c r="D74">
+        <v>-0.03231008380377103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.007785924441333201</v>
+        <v>-0.0131141273938368</v>
       </c>
       <c r="C75">
-        <v>0.1221369288204956</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1169885231745234</v>
+      </c>
+      <c r="D75">
+        <v>-0.02514838019318915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01830161753413943</v>
+        <v>-0.02367942886361953</v>
       </c>
       <c r="C76">
-        <v>0.1492240774168811</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1448098193632969</v>
+      </c>
+      <c r="D76">
+        <v>-0.05506485734875318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0156327417720738</v>
+        <v>-0.02177568099849496</v>
       </c>
       <c r="C77">
-        <v>0.1086536649205738</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1036706554113543</v>
+      </c>
+      <c r="D77">
+        <v>-0.04716559903778861</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.01047822016815479</v>
+        <v>-0.0152512345151606</v>
       </c>
       <c r="C78">
-        <v>0.09243571549064879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1028911220334979</v>
+      </c>
+      <c r="D78">
+        <v>-0.07737104945366566</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03301658964079821</v>
+        <v>-0.03977805890242123</v>
       </c>
       <c r="C79">
-        <v>0.1600261624663381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.1552626398277266</v>
+      </c>
+      <c r="D79">
+        <v>-0.02639694964603612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.009228958110682972</v>
+        <v>-0.009742570126292528</v>
       </c>
       <c r="C80">
-        <v>0.0458572831235047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03892567165532491</v>
+      </c>
+      <c r="D80">
+        <v>-0.02413671110806691</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.01210060664724756</v>
+        <v>-0.01755539058184206</v>
       </c>
       <c r="C81">
-        <v>0.1331473435326199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.130163432229496</v>
+      </c>
+      <c r="D81">
+        <v>-0.03506751785101757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01525622370875775</v>
+        <v>-0.02125913214357846</v>
       </c>
       <c r="C82">
-        <v>0.1437838442534957</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.1366652124510087</v>
+      </c>
+      <c r="D82">
+        <v>-0.03680870949054628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009507911263015112</v>
+        <v>-0.01224716195380806</v>
       </c>
       <c r="C83">
-        <v>0.07427503068721859</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06667915424818477</v>
+      </c>
+      <c r="D83">
+        <v>-0.04492219542439964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.006394368582943844</v>
+        <v>-0.007282095783938084</v>
       </c>
       <c r="C84">
-        <v>0.02692129913504602</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.03461476404860884</v>
+      </c>
+      <c r="D84">
+        <v>-0.01039551172214099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02654259822018026</v>
+        <v>-0.03047124331517991</v>
       </c>
       <c r="C85">
-        <v>0.1377715600540159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1220666786572149</v>
+      </c>
+      <c r="D85">
+        <v>-0.03956318894133361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001608350832397825</v>
+        <v>-0.003656397178161472</v>
       </c>
       <c r="C86">
-        <v>0.05104731939128291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.04856559987658438</v>
+      </c>
+      <c r="D86">
+        <v>-0.01466800050380059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008205302512943567</v>
+        <v>-0.01346363258093251</v>
       </c>
       <c r="C87">
-        <v>0.1353496417338539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1277892835737731</v>
+      </c>
+      <c r="D87">
+        <v>-0.07229713952788691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.004832025290609527</v>
+        <v>0.002272370321767892</v>
       </c>
       <c r="C88">
-        <v>0.06940040918272683</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06444032388531756</v>
+      </c>
+      <c r="D88">
+        <v>-0.02798863145019541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.006640327672836654</v>
+        <v>0.001707116791138466</v>
       </c>
       <c r="C89">
-        <v>0.1148710185754266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.1275484083594351</v>
+      </c>
+      <c r="D89">
+        <v>0.3218938813882725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002420241896230987</v>
+        <v>-0.00561948971377194</v>
       </c>
       <c r="C90">
-        <v>0.1037656440257646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.1097693658871169</v>
+      </c>
+      <c r="D90">
+        <v>0.3154604897992375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.007674782800496242</v>
+        <v>-0.01159029876275119</v>
       </c>
       <c r="C91">
-        <v>0.103408543145806</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09884557234158124</v>
+      </c>
+      <c r="D91">
+        <v>-0.02783964669651193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00356126150786696</v>
+        <v>0.0003217474490118483</v>
       </c>
       <c r="C92">
-        <v>0.1132233884867156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.1200491712411478</v>
+      </c>
+      <c r="D92">
+        <v>0.32827157839921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>8.869602540787424e-05</v>
+        <v>-0.003498148234735055</v>
       </c>
       <c r="C93">
-        <v>0.09279907802366298</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1019577898090522</v>
+      </c>
+      <c r="D93">
+        <v>0.3022659481769731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01769784740965406</v>
+        <v>-0.02292855226153969</v>
       </c>
       <c r="C94">
-        <v>0.1508801292498674</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.1345812179342514</v>
+      </c>
+      <c r="D94">
+        <v>-0.05306097041062714</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.01447979444106022</v>
+        <v>-0.01859491714542132</v>
       </c>
       <c r="C95">
-        <v>0.125633063333166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.122501404387088</v>
+      </c>
+      <c r="D95">
+        <v>-0.06418816682812846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.02818484245860638</v>
+        <v>-0.03872481701756748</v>
       </c>
       <c r="C97">
-        <v>0.2027902937441291</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2229729984318</v>
+      </c>
+      <c r="D97">
+        <v>0.01241854437662657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.03151835976214166</v>
+        <v>-0.04205757480500309</v>
       </c>
       <c r="C98">
-        <v>0.2733494746136561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2668306986099732</v>
+      </c>
+      <c r="D98">
+        <v>-0.0335998219427493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9833580475315025</v>
+        <v>-0.9790808022748475</v>
       </c>
       <c r="C99">
-        <v>-0.09233732754315817</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.1315397740516544</v>
+      </c>
+      <c r="D99">
+        <v>0.02592656475316552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002305958616216562</v>
+        <v>-0.003678709609302402</v>
       </c>
       <c r="C101">
-        <v>0.04734099125832109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04780640433679055</v>
+      </c>
+      <c r="D101">
+        <v>-0.009507174722792569</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
